--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11271.22063709848</v>
+        <v>2242972.906782596</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11271.22063709848</v>
+        <v>2242972.906782596</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47204.34893633934</v>
+        <v>3223647.82773147</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47204.34893633934</v>
+        <v>3223647.82773147</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610393969.050499</v>
+        <v>63141044.15939318</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14746.38576298257</v>
+        <v>1480970.438432384</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28567.64332198615</v>
+        <v>2803316.330781607</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>42388.90088098969</v>
+        <v>4125662.223130833</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>58414.08693114062</v>
+        <v>5288823.461278377</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>73716.27903154476</v>
+        <v>6530556.664496778</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89018.4711319473</v>
+        <v>7772289.867715354</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>104614.7120578338</v>
+        <v>9025276.093293792</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>120154.4051326657</v>
+        <v>10267009.29651237</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135373.647539498</v>
+        <v>11462995.36538005</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150459.8480260462</v>
+        <v>12705485.94548275</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165545.989576001</v>
+        <v>13947976.52558545</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180632.1900625492</v>
+        <v>15190467.10568815</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195718.3905490974</v>
+        <v>16432957.68579087</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>211060.7204332189</v>
+        <v>17647348.74821981</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>227755.3735367825</v>
+        <v>18619078.71034097</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>169.0000000000605</v>
@@ -27055,10 +27055,10 @@
         <v>1.109819238062482e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>153.9999999998902</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>143</v>
